--- a/Excel Formulas.xlsx
+++ b/Excel Formulas.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2278367\Download\Excel Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0A7BA3-7B81-44A7-BF94-AA28ED0F48D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A0FA00-C100-496A-8C45-D29AD4796ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula Fundamentals" sheetId="1" r:id="rId1"/>
-    <sheet name="Basic Functions" sheetId="3" r:id="rId2"/>
-    <sheet name="Conditional Functions" sheetId="4" r:id="rId3"/>
-    <sheet name="Tax Rate" sheetId="2" r:id="rId4"/>
+    <sheet name="Logical Functions" sheetId="7" r:id="rId2"/>
+    <sheet name="Date &amp; TimeFunctions" sheetId="8" r:id="rId3"/>
+    <sheet name="Bonus" sheetId="9" r:id="rId4"/>
+    <sheet name="Basic Functions" sheetId="3" r:id="rId5"/>
+    <sheet name="Conditional Functions" sheetId="4" r:id="rId6"/>
+    <sheet name="Lookup Functions" sheetId="5" r:id="rId7"/>
+    <sheet name="Text Functions" sheetId="6" r:id="rId8"/>
+    <sheet name="Tax Rate" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="TaxRate">'Tax Rate'!$A$2</definedName>
@@ -41,8 +46,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="95">
   <si>
     <t>Chocolate Chips</t>
   </si>
@@ -150,13 +177,190 @@
   </si>
   <si>
     <t>Philippines</t>
+  </si>
+  <si>
+    <t>sumif</t>
+  </si>
+  <si>
+    <t>sumifs</t>
+  </si>
+  <si>
+    <t>Cookie Type</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oatmeal Rasin </t>
+  </si>
+  <si>
+    <t>VLookup</t>
+  </si>
+  <si>
+    <t>XLookup</t>
+  </si>
+  <si>
+    <t>What is the price of :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the price of : </t>
+  </si>
+  <si>
+    <t>sumifs if the country ends with "s"</t>
+  </si>
+  <si>
+    <t>Proper</t>
+  </si>
+  <si>
+    <t>Trim</t>
+  </si>
+  <si>
+    <t>Concat</t>
+  </si>
+  <si>
+    <t>kevin cookie company</t>
+  </si>
+  <si>
+    <t>Kevin Cookie Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cookie </t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Kevin Cookie    Company    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp; </t>
+  </si>
+  <si>
+    <t>Text Join</t>
+  </si>
+  <si>
+    <t>Right,Left, Mid</t>
+  </si>
+  <si>
+    <t>123, Main Street, 05486</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Find(case-sensitive) and Search(not case-sensitive)</t>
+  </si>
+  <si>
+    <t>KevinCookieCompany@PvtLtd.com</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Combine Left and Find</t>
+  </si>
+  <si>
+    <t>True / False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Cookie Company </t>
+  </si>
+  <si>
+    <t>Mrs Bakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Statements </t>
+  </si>
+  <si>
+    <t>Cookie Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sold </t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>Do we sell more Chocolate Chip or Oatmeal Rasin</t>
+  </si>
+  <si>
+    <t>Oatmeal Rasin</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>Does chocolate chip sell more than all other cookies?</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Does chocolate chip sell more than oatmeal raisins or sugar cookies</t>
+  </si>
+  <si>
+    <t>NestedIf / Ifs</t>
+  </si>
+  <si>
+    <t>what is the price of :</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonus </t>
+  </si>
+  <si>
+    <t>shorcut to view all the formulas and functions</t>
+  </si>
+  <si>
+    <t>Ctrl + ~</t>
+  </si>
+  <si>
+    <t>shorcut for name manager</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>shorcut to insert a formula</t>
+  </si>
+  <si>
+    <t>Shift+F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorcut to create absolute reference </t>
+  </si>
+  <si>
+    <t>F4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +383,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,18 +409,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -636,6 +854,367 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92F860B-8CF2-4346-9E23-FB4389013281}">
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="b">
+        <f>A3=B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6" t="b">
+        <f>A4=B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7" t="b">
+        <f>A4=B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C8" t="b">
+        <f>A4&gt;B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="b">
+        <f>A4&gt;=B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C10" t="b">
+        <f>A4&gt;=B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C11" t="b">
+        <f>A4&gt;B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C12" t="b">
+        <f>AND(A4&gt;B4,B4&lt;B5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C13" t="b">
+        <f>OR(A4&lt;B4,B4&lt;A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(B18&gt;B19,"we sold more chocolate chips than oatmeal raisins","we sold more oatmeal raisins than chocolate chips")</f>
+        <v>we sold more chocolate chips than oatmeal raisins</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C23" t="str">
+        <f>IF(AND(B18&gt;B19,B18&gt;B20),"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C26" t="str">
+        <f>IF(OR(B18&gt;B19,B18&gt;B20),"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D34" cm="1">
+        <f t="array" ref="D34">_xlfn.IFS(D33=A30,B30,D33=A31,B31,D33=A32,B32)</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25763AEC-F845-4DDD-9221-3BE60A2E93AD}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <f ca="1">TODAY()</f>
+        <v>45574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <f ca="1">NOW()</f>
+        <v>45574.561070023148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F93E5B-3EBE-40D4-953E-7DEBAF5698D1}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>5+4</f>
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <f>8-2</f>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>A3+B3</f>
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <f>4+2</f>
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>A4+B4</f>
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFA3B65-6942-41C4-AB87-56D9FE7BD1D9}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -792,12 +1371,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E504EBD-5FAB-4FD8-868C-D3C219EBA9DC}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,9 +1384,10 @@
     <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -818,7 +1398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -828,8 +1408,15 @@
       <c r="C2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <f>SUMIF(B:B,B2,C:C)</f>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -839,8 +1426,15 @@
       <c r="C3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3">
+        <f>SUMIFS(C:C,A:A,A3)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -850,8 +1444,15 @@
       <c r="C4">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4">
+        <f>SUMIF(B:B,"*s",C:C)</f>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -862,7 +1463,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -873,7 +1474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -884,7 +1485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -895,7 +1496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -906,7 +1507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -917,7 +1518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -928,7 +1529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -939,7 +1540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -950,7 +1551,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -961,7 +1562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -972,7 +1573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1054,7 +1655,322 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D64DFBA-C776-42AC-844B-9BD6875516AC}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(F3,A2:C4,2,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F7" cm="1">
+        <f t="array" ref="F7:G7">_xlfn.XLOOKUP(F6,A:A,B:C,"no value found",0,1)</f>
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED7DB9A-B1E6-4568-9190-964E283D550F}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="str">
+        <f>PROPER(A2)</f>
+        <v>Kevin Cookie Company</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="str">
+        <f>TRIM(A6)</f>
+        <v>Kevin Cookie Company</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT(A10,B10,C10)</f>
+        <v>Kevin Cookie Company</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="str">
+        <f>A14&amp;B14&amp;C14</f>
+        <v>Kevin Cookie Company</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="str">
+        <f>_xlfn.TEXTJOIN(" ",TRUE,A18:C18)</f>
+        <v>Kevin  Cookie  Company</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="str">
+        <f>MID(A22,6,11)</f>
+        <v>Main Street</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>LEFT(A22,3)</f>
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>RIGHT(A22,5)</f>
+        <v>05486</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f>LEN(A29)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f>FIND("PvtLtd",A34)</f>
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f>SEARCH("pvtltd",A34)</f>
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f>LEFT(A34,FIND("@",A34)-1)</f>
+        <v>KevinCookieCompany</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A34" r:id="rId1" xr:uid="{52F09695-27D2-417F-B06B-295C7E647490}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA855FA-EABB-4573-B31F-47220AA9CE3F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
